--- a/data/Fig6/Fig6B_df_20230110.xlsx
+++ b/data/Fig6/Fig6B_df_20230110.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saeko/MOCCS_paper_public/data/Fig6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0978831D-831A-B74F-B766-A82A14D5A60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3BE365-BC12-9346-8417-C87882906B0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4160" yWindow="2700" windowWidth="27900" windowHeight="16940" xr2:uid="{3327701D-AD64-FD40-BFF2-D88EEF3EAE44}"/>
+    <workbookView xWindow="4160" yWindow="2700" windowWidth="27900" windowHeight="16940" activeTab="3" xr2:uid="{3327701D-AD64-FD40-BFF2-D88EEF3EAE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="16">
   <si>
     <t>phenotype</t>
     <phoneticPr fontId="1"/>
@@ -87,6 +91,18 @@
   </si>
   <si>
     <t>MS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔMOCCS2score &gt; 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ΔMOCCS2score &lt; 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SLE, Bloodサンプルのみ(853sample)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -215,7 +231,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -503,7 +519,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -513,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B414F39D-DA49-6243-B075-3CEB5A4914DC}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -761,4 +777,725 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCF2627-8FB3-D745-A31A-247C334ECCCA}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>124</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>118</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>175</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>61</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>30</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>29</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
+        <v>123</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0372DEC3-3FE1-8341-BB61-E3540CED43F9}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>90</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>125</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>111</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>176</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="4">
+        <v>51</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
+        <v>36</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4">
+        <v>100</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5">
+        <v>73</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5">
+        <v>39</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
+        <v>123</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="5">
+        <v>10</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9133E8D1-B1F4-6D46-B03E-8A1321D27E22}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="4">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4">
+        <v>129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4">
+        <v>134</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E43D0EE1-7067-2342-86A6-0133938E9009}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>